--- a/data/panelapp/uk/Peeling skin syndrome.xlsx
+++ b/data/panelapp/uk/Peeling skin syndrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059123</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059135</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059139</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059142</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059145</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059149</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059152</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059155</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059158</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059161</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059164</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Peeling skin syndrome</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059167</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Peeling skin syndrome</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:37.059170</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Peeling skin syndrome.xlsx
+++ b/data/panelapp/uk/Peeling skin syndrome.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059123</t>
+          <t>2021-10-05 14:22:11.112192</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059135</t>
+          <t>2021-10-05 14:22:11.112203</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059139</t>
+          <t>2021-10-05 14:22:11.112208</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059142</t>
+          <t>2021-10-05 14:22:11.112212</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059145</t>
+          <t>2021-10-05 14:22:11.112215</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059149</t>
+          <t>2021-10-05 14:22:11.112218</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059152</t>
+          <t>2021-10-05 14:22:11.112221</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059155</t>
+          <t>2021-10-05 14:22:11.112223</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059158</t>
+          <t>2021-10-05 14:22:11.112226</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059161</t>
+          <t>2021-10-05 14:22:11.112229</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059164</t>
+          <t>2021-10-05 14:22:11.112232</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059167</t>
+          <t>2021-10-05 14:22:11.112235</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,91 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:37.059170</t>
+          <t>2021-10-05 14:22:11.112237</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Peeling skin syndrome</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2017-11-05T02:37:19.863085Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:11.108785</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/24/?format=json</t>
         </is>
       </c>
     </row>
